--- a/biology/Zoologie/Manuel_Ángel_González_Sponga/Manuel_Ángel_González_Sponga.xlsx
+++ b/biology/Zoologie/Manuel_Ángel_González_Sponga/Manuel_Ángel_González_Sponga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manuel_%C3%81ngel_Gonz%C3%A1lez_Sponga</t>
+          <t>Manuel_Ángel_González_Sponga</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Manuel Ángel González Sponga est un arachnologiste vénézuélien, né le 30 avril 1929 à Guatire et mort le 1er mars 2009 à Caracas.
 Professeur à l'Universidad Pedagógica Experimental Libertador, il était un spécialiste des scorpions néotropicaux. Il a également étudié les opilions et les araignées.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manuel_%C3%81ngel_Gonz%C3%A1lez_Sponga</t>
+          <t>Manuel_Ángel_González_Sponga</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Espèces nommées en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Broteochactas gonzalezspongai Lourenço, 1983
 Bolitoglossa spongai Barrios Amorós &amp; Fuentes Ramos, 1999.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Manuel_%C3%81ngel_Gonz%C3%A1lez_Sponga</t>
+          <t>Manuel_Ángel_González_Sponga</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Genre nommé en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Manuelangelia</t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Manuel_%C3%81ngel_Gonz%C3%A1lez_Sponga</t>
+          <t>Manuel_Ángel_González_Sponga</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Absonus ayalai González Sponga, 1987
